--- a/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/script2/DefiningSNPsGroupDesignations.xlsx
+++ b/dependencies/bi/salmonella/heidelberg-SL476/script_dependents/script2/DefiningSNPsGroupDesignations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/bi/salmonella/vsnp/heidelberg-SL476/script_dependents/script2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{686134A8-2E16-D745-B2EE-B09FEA8A991C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{700635F7-055D-5248-8441-D08AB744EDEF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="54800" yWindow="10260" windowWidth="30880" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Grouping</t>
   </si>
@@ -39,16 +39,29 @@
     <t>heidelberg-01</t>
   </si>
   <si>
-    <t>NC_011083.1-166399</t>
+    <t>NC_011083.1-4763873</t>
+  </si>
+  <si>
+    <t>heidelberg-02</t>
+  </si>
+  <si>
+    <t>NC_011083.1-1701563</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+  <fonts count="24" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -520,124 +533,124 @@
   </borders>
   <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -645,6 +658,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="115">
@@ -1066,14 +1080,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="129" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="129" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1092,9 +1104,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3"/>
-      <c r="B3"/>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4"/>
